--- a/data/trans_camb/P11_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P11_R-Edad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-2.254198623804002</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1.680397525015005</v>
+        <v>1.680397525015003</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>1.89212228356731</v>
@@ -664,7 +664,7 @@
         <v>-1.585243216764203</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>3.191709258141574</v>
+        <v>3.191709258141573</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.246597099200663</v>
+        <v>-3.987850682261086</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.245988804573432</v>
+        <v>-5.325476834875173</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.340921427995798</v>
+        <v>-2.202580662376232</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.420101772227711</v>
+        <v>-1.870085426140013</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-4.072564559759656</v>
+        <v>-4.400965842889063</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2694731799847576</v>
+        <v>0.2221945181120231</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.979771318536626</v>
+        <v>-2.115378154359065</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-3.929591088925292</v>
+        <v>-4.045557496928163</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.036714383054203</v>
+        <v>-0.2356115934180235</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.014710727296958</v>
+        <v>2.236062361065948</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8150594817688496</v>
+        <v>0.7737741818483311</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.825173890110058</v>
+        <v>7.17803527142001</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.217806660975179</v>
+        <v>5.388162178854138</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.048441979175196</v>
+        <v>2.419988608967718</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>11.07605706092236</v>
+        <v>10.86430275279804</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.812971435588568</v>
+        <v>2.787946165149266</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.7539939891109442</v>
+        <v>0.6621986360684462</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>7.089689984048307</v>
+        <v>7.096105277441509</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.3450466098184884</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.2572157852600214</v>
+        <v>0.257215785260021</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.2677615012696659</v>
@@ -769,7 +769,7 @@
         <v>-0.2333860387870461</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.4698965892679192</v>
+        <v>0.469896589267919</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.5033588239669665</v>
+        <v>-0.4753471428336346</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.6501351793593237</v>
+        <v>-0.6459605524903497</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3310654947126032</v>
+        <v>-0.3028441059912388</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1758768416946974</v>
+        <v>-0.2120452650252679</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.469971998196441</v>
+        <v>-0.4993782593726982</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.02156585004032007</v>
+        <v>0.02382909989324031</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2373610570571332</v>
+        <v>-0.2522042974915709</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4929687750328324</v>
+        <v>-0.5138795228596948</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.008733268423310334</v>
+        <v>-0.0721701894796901</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.4065526772330454</v>
+        <v>0.4903068103154</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2187873645266312</v>
+        <v>0.1784382536206112</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.445976052410023</v>
+        <v>1.303472098501897</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.9476734026952809</v>
+        <v>0.9841087628732498</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3663066880406076</v>
+        <v>0.468726026314628</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.850087662121969</v>
+        <v>1.969934901209275</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4836340790524614</v>
+        <v>0.4852144058428799</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1529073044669778</v>
+        <v>0.120913409230962</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.170539676894265</v>
+        <v>1.285170353765669</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>-0.1447266787212326</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>5.889318941111895</v>
+        <v>5.889318941111893</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.1793604693487033</v>
+        <v>0.01502801900474759</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.3609346547650133</v>
+        <v>-0.4863011408234339</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5.664535306051811</v>
+        <v>5.232715087466742</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-8.926872492161463</v>
+        <v>-9.121051378469497</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-7.271158128362902</v>
+        <v>-7.451246807516652</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-2.765784880294708</v>
+        <v>-3.2638257153095</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-3.380843864896057</v>
+        <v>-3.214471465300352</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.430419479929858</v>
+        <v>-2.55011650738042</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.820148980079632</v>
+        <v>2.891402499222656</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.704000939952873</v>
+        <v>5.40830959030406</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.600511532190706</v>
+        <v>5.374943350183423</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14.44189477995176</v>
+        <v>14.71469967904429</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-1.653517680401582</v>
+        <v>-1.696207560435822</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2369670632723113</v>
+        <v>0.4802176100774492</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>5.909679327045473</v>
+        <v>5.692795449587631</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.285025048889141</v>
+        <v>1.360497606229635</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.29606843030512</v>
+        <v>2.277065061031936</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>9.079146634096965</v>
+        <v>9.094618588808977</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>-0.01501635969728193</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.6110561810244697</v>
+        <v>0.6110561810244695</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.0559258869551606</v>
+        <v>-0.01178016060697788</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.05588394624125975</v>
+        <v>-0.08118332915435032</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.7736287178610329</v>
+        <v>0.7145309720170256</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.5448864948694795</v>
+        <v>-0.5533451908901132</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.446259435587293</v>
+        <v>-0.457558312505169</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1734963077607085</v>
+        <v>-0.2031096234306235</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3102194289811928</v>
+        <v>-0.2961139748748524</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2257112014487692</v>
+        <v>-0.2343037734388058</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.2703832080756149</v>
+        <v>0.2643426622482416</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.211032403167622</v>
+        <v>1.172436741109808</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.167071087079488</v>
+        <v>1.14685686790217</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>3.107939470534829</v>
+        <v>3.023839192912884</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.1204668046423615</v>
+        <v>-0.1285982525595331</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.0201556898088866</v>
+        <v>0.04704455172858394</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.483027808313455</v>
+        <v>0.4430469225343611</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1588165140319433</v>
+        <v>0.1704462025828876</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2714373962010502</v>
+        <v>0.2600897536831943</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.055085463252154</v>
+        <v>1.046860109396206</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>0.7798405360359806</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7.69255712046014</v>
+        <v>7.692557120460143</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-1.543999169849811</v>
@@ -1092,7 +1092,7 @@
         <v>-2.736550840717789</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>4.83503963862412</v>
+        <v>4.835039638624123</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.71583590141528</v>
+        <v>-1.9365342530514</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.79484659330704</v>
+        <v>-3.000849222256815</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.700874975361724</v>
+        <v>3.738295953666748</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-5.677035752315024</v>
+        <v>-6.017633975587675</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-9.799893588351686</v>
+        <v>-9.93693230984937</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.72126846970402</v>
+        <v>-1.809153695248858</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.812629599831193</v>
+        <v>-2.740363371726061</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-5.646167629014698</v>
+        <v>-5.229301618295481</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>2.056489225681038</v>
+        <v>1.941179538775123</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.559731824083959</v>
+        <v>5.235206173559952</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.576177290967977</v>
+        <v>4.083468207908952</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11.4942887405067</v>
+        <v>11.58043637430783</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.999927349053018</v>
+        <v>2.572083772643798</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-1.760533410348055</v>
+        <v>-1.869398372305858</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>6.416398497158908</v>
+        <v>7.022844921155115</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.959368168673291</v>
+        <v>3.075929852798924</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.09233126958837048</v>
+        <v>0.1578916044764541</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>7.887133777167496</v>
+        <v>7.704270430147274</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.07327370340497948</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.7227915488153758</v>
+        <v>0.7227915488153761</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.07538502199841957</v>
@@ -1197,7 +1197,7 @@
         <v>-0.1737346688184509</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.3069608639611866</v>
+        <v>0.3069608639611868</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1376790098736282</v>
+        <v>-0.1659025391853001</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2285230664776526</v>
+        <v>-0.2468491368159832</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.2942814310346616</v>
+        <v>0.3074396549427651</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2497340536780566</v>
+        <v>-0.2653008731219908</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4383110976587187</v>
+        <v>-0.4413586515467692</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.07890973757058375</v>
+        <v>-0.07950831098603849</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1642114209478121</v>
+        <v>-0.1587433618948856</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3238802762254439</v>
+        <v>-0.310497503425304</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.1191506923781706</v>
+        <v>0.1164588859442499</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.6630902307543649</v>
+        <v>0.5656478182095788</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.5409315695916912</v>
+        <v>0.4493485588012919</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.288944414977202</v>
+        <v>1.304316696837927</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.16524020261786</v>
+        <v>0.1407822830356682</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.08880978218622712</v>
+        <v>-0.09942297370840997</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3533792345437617</v>
+        <v>0.3827175098643845</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2070200258445836</v>
+        <v>0.2135588941164364</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.01269685665636246</v>
+        <v>0.01031304939762966</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.5503852929471671</v>
+        <v>0.5449238394081356</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>-2.884286403863312</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>6.335085491459366</v>
+        <v>6.335085491459372</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-8.586979264639812</v>
+        <v>-9.261446715881167</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.334023581994499</v>
+        <v>-4.300455857987473</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.104194615020381</v>
+        <v>2.693054488964381</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-8.25054471723837</v>
+        <v>-8.597898160979975</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-11.16669088845111</v>
+        <v>-11.69422150850871</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.03627072929707269</v>
+        <v>-0.3680440033874195</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-6.988990841778953</v>
+        <v>-7.341109580660715</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-6.541491872440205</v>
+        <v>-6.372844368885934</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>2.924358193028102</v>
+        <v>3.145510761226122</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.6759593217158039</v>
+        <v>0.3316419234389562</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.008837894060497</v>
+        <v>5.071145695794143</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>12.84256781641205</v>
+        <v>12.16995038146031</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.789843177834755</v>
+        <v>2.368463281946096</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-1.315251688223107</v>
+        <v>-0.5624301137252372</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>9.256062540667077</v>
+        <v>9.297159211522372</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-0.1027628392249568</v>
+        <v>-0.07394805041863925</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3987784897721071</v>
+        <v>0.7462768278158816</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>9.821738151835927</v>
+        <v>10.06098113771859</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>-0.1196306555505042</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.2627583825575208</v>
+        <v>0.262758382557521</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.4243481634003696</v>
+        <v>-0.4355835049437954</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2037409063175666</v>
+        <v>-0.2091344465072133</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.1500443385816445</v>
+        <v>0.1301062752452005</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2508095308188397</v>
+        <v>-0.260554784038349</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3385466866868982</v>
+        <v>-0.3606798512827868</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.002650579407721617</v>
+        <v>-0.008245747150913457</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.273964133270341</v>
+        <v>-0.2777567805544148</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2495297517695217</v>
+        <v>-0.2466809419438621</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.107578344217409</v>
+        <v>0.1206734455333764</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.04879354148560826</v>
+        <v>0.02523933087021632</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3094582550463446</v>
+        <v>0.3135796737260551</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.8130276319260481</v>
+        <v>0.7595123525639181</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1029639363599822</v>
+        <v>0.08897146575458467</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.04514283392728696</v>
+        <v>-0.01880351904173231</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3513797749580578</v>
+        <v>0.3559160828548162</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.001825661284145599</v>
+        <v>-0.0006933836243986011</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.01905663843498763</v>
+        <v>0.0310252599385219</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.4402923828765694</v>
+        <v>0.4746129557736502</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>3.018573914448563</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>7.452646352074638</v>
+        <v>7.452646352074654</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>1.993516813423912</v>
@@ -1520,7 +1520,7 @@
         <v>-1.506663581249629</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>7.088713349237019</v>
+        <v>7.088713349237008</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-10.45110849193976</v>
+        <v>-9.83772961281452</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-12.41937370508814</v>
+        <v>-12.20273982488584</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.6296839288723692</v>
+        <v>0.5530770848086292</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.4098243200720966</v>
+        <v>0.780884607046512</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-3.439026436716959</v>
+        <v>-3.632384662314986</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>1.603629470349569</v>
+        <v>1.46480727203789</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-2.722367465636482</v>
+        <v>-3.072465944779992</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-6.54381863935864</v>
+        <v>-6.082696531010354</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>2.902962819741505</v>
+        <v>2.76329858993889</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.937973685247311</v>
+        <v>2.066506208642203</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.4421314418486579</v>
+        <v>-0.5004804811813426</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>12.81884121114796</v>
+        <v>12.82596791115226</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>14.45287447494569</v>
+        <v>14.48011962722805</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>10.55574457281542</v>
+        <v>10.14582670494617</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>13.12173814082673</v>
+        <v>12.55043366686953</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>6.526526392393676</v>
+        <v>6.587073359029885</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>3.475358712064195</v>
+        <v>3.343563416660397</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>11.13398826633961</v>
+        <v>11.02852990187203</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.07854623305657868</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1939251162465746</v>
+        <v>0.193925116246575</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.05744511353822924</v>
@@ -1625,7 +1625,7 @@
         <v>-0.04341596715211423</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.2042681257789272</v>
+        <v>0.2042681257789269</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.3092441118824681</v>
+        <v>-0.2952113691916083</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3643823661154769</v>
+        <v>-0.3666985763825842</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.009401440643791647</v>
+        <v>0.01561343258833862</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.01587759046269852</v>
+        <v>0.013911331605417</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.08142277246077234</v>
+        <v>-0.08921239343755176</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.03799482426565576</v>
+        <v>0.03460300649925861</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.06946148890038195</v>
+        <v>-0.08160002407954384</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.1770382074753062</v>
+        <v>-0.1644415963912935</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.07754542718850614</v>
+        <v>0.07692180290277581</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.07325989862290561</v>
+        <v>0.07369804653342951</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.0140778374624319</v>
+        <v>-0.01756941627797552</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.4741634696623322</v>
+        <v>0.4864496937311803</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.4121141601620905</v>
+        <v>0.4114442804959861</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.3035505034737045</v>
+        <v>0.2909202265987461</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.3775944561402297</v>
+        <v>0.3663151488278354</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2031026749112546</v>
+        <v>0.2084129429700067</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.1072009467337299</v>
+        <v>0.09981828508139046</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.3386816035965299</v>
+        <v>0.3537485664689274</v>
       </c>
     </row>
     <row r="34">
@@ -1734,7 +1734,7 @@
         <v>-3.090187126500838</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-2.963153853807432</v>
+        <v>-2.963153853807427</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-5.295289021974865</v>
+        <v>-5.998086779276676</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-12.94473284167726</v>
+        <v>-13.38895688790117</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-9.311145579925354</v>
+        <v>-9.781974231496585</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-2.83429265696231</v>
+        <v>-2.614074598515981</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-7.549625899509009</v>
+        <v>-7.781860089221731</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-8.782602864927986</v>
+        <v>-8.09581764132369</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-2.149792784912323</v>
+        <v>-1.956990582178543</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-8.448585469485549</v>
+        <v>-8.556350626011888</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-7.806618962361957</v>
+        <v>-7.567010631276208</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>10.62269862863176</v>
+        <v>9.830259103567737</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>1.869228339032809</v>
+        <v>1.82307410809138</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3.852130225280591</v>
+        <v>3.715557390248979</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>12.22382053337629</v>
+        <v>12.00113783827675</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>6.581567589772424</v>
+        <v>7.17160318568263</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>3.9328982174134</v>
+        <v>3.445600416004464</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>8.977064863576564</v>
+        <v>9.19577943516779</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>2.1488134893795</v>
+        <v>2.371764120464047</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>1.73027121707772</v>
+        <v>1.413344555549517</v>
       </c>
     </row>
     <row r="37">
@@ -1839,7 +1839,7 @@
         <v>-0.06599795579716117</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.06328487209938471</v>
+        <v>-0.06328487209938459</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.1271089459689216</v>
+        <v>-0.1405772799545958</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.3139960603851817</v>
+        <v>-0.3115323220113754</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.222578978842076</v>
+        <v>-0.2304972919767552</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.05279632784063655</v>
+        <v>-0.0442621111870896</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.1295227676641797</v>
+        <v>-0.1343634010321674</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.1493569435312709</v>
+        <v>-0.1399313426772603</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.04326455605496258</v>
+        <v>-0.03971835208245396</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.1723335389333683</v>
+        <v>-0.1753115671299019</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.1544548302748197</v>
+        <v>-0.1512313276021788</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.3098526204042355</v>
+        <v>0.289308451114184</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.05639719172102872</v>
+        <v>0.05844274811363983</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.1142529390696602</v>
+        <v>0.1132242193677724</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.2319869800987329</v>
+        <v>0.2299153823709006</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.1238821928655102</v>
+        <v>0.1426084146883628</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.07879006669567132</v>
+        <v>0.06958525349232184</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2031423158088308</v>
+        <v>0.2103220648502502</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.04885009123038805</v>
+        <v>0.05511582718534643</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.04120535147107614</v>
+        <v>0.03535908738089256</v>
       </c>
     </row>
     <row r="40">
@@ -1939,7 +1939,7 @@
         <v>1.09664987337601</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>9.986473873574653</v>
+        <v>9.986473873574642</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>5.856921661678882</v>
@@ -1948,7 +1948,7 @@
         <v>-2.025029804509515</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>1.829361611629887</v>
+        <v>1.829361611629898</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-9.42161707888221</v>
+        <v>-9.028037833395345</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-14.85041973053903</v>
+        <v>-15.63624376842878</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-18.95094435999358</v>
+        <v>-18.22516242264471</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>2.692027579957378</v>
+        <v>2.938722567045275</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-6.473775697703371</v>
+        <v>-7.762457115729697</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>3.892010732088432</v>
+        <v>3.689139208030718</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>0.2545742810095409</v>
+        <v>0.4817344702160496</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-8.227750876998829</v>
+        <v>-7.775060856455308</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-2.688761571212165</v>
+        <v>-2.796378456705025</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>9.434597100537752</v>
+        <v>9.429282407966808</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>2.080256543046783</v>
+        <v>1.433603266320362</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-2.954151265679153</v>
+        <v>-2.265960895582179</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>16.79199045094103</v>
+        <v>17.38970865801781</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>8.574966643848683</v>
+        <v>7.910844939182487</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>15.90720103847507</v>
+        <v>16.11854706602287</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>11.30020639483221</v>
+        <v>11.49509616604495</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>3.465320217652962</v>
+        <v>3.623192796836473</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>6.666401183790474</v>
+        <v>6.777764012881828</v>
       </c>
     </row>
     <row r="43">
@@ -2044,7 +2044,7 @@
         <v>0.01610499919668066</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1466577050854657</v>
+        <v>0.1466577050854656</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.08966172069231443</v>
@@ -2053,7 +2053,7 @@
         <v>-0.03100052676366137</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.02800510564114048</v>
+        <v>0.02800510564114065</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.145346536340676</v>
+        <v>-0.1420097502958142</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.2276297829509153</v>
+        <v>-0.2407998826207305</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.2855153966371821</v>
+        <v>-0.2742891818930847</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.03905413229313121</v>
+        <v>0.04115120658550531</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.09093035648521815</v>
+        <v>-0.1072629122176832</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.05494087736780878</v>
+        <v>0.04956998804390704</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.003569903888848077</v>
+        <v>0.006886988358462245</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.1212632648216479</v>
+        <v>-0.1137810755407108</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.03938233527221933</v>
+        <v>-0.04005699006417616</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.1700338606560849</v>
+        <v>0.1708647161143371</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.03539258386520963</v>
+        <v>0.02484225322193483</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.0546108879802718</v>
+        <v>-0.04165051933260699</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.2673875809348997</v>
+        <v>0.2720702481615536</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.1351387826651442</v>
+        <v>0.1225986865060187</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.251719807529794</v>
+        <v>0.2545363088585192</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1814264205553412</v>
+        <v>0.1870445447944187</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.05534512728040461</v>
+        <v>0.05788284154044757</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.1089711695915743</v>
+        <v>0.1112852865852948</v>
       </c>
     </row>
     <row r="46">
@@ -2153,7 +2153,7 @@
         <v>-0.3869034573318164</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>7.926563002586834</v>
+        <v>7.926563002586828</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>1.455810121421572</v>
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-1.150294815302778</v>
+        <v>-1.237788778929974</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-1.526865253152924</v>
+        <v>-1.587723313466471</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>6.254861126581851</v>
+        <v>6.255431237372306</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-0.1907595311893892</v>
+        <v>-0.1784097733968676</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-2.698522622657745</v>
+        <v>-2.705170688389563</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>5.634360022211786</v>
+        <v>5.979983534029413</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-0.02730442716042892</v>
+        <v>0.04643484118380481</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-1.564870039143509</v>
+        <v>-1.41531267540532</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>6.625640512495395</v>
+        <v>6.660066962874521</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>2.595903313235435</v>
+        <v>2.541120636687651</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>2.277920698582861</v>
+        <v>2.151207202235826</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>10.3332103978547</v>
+        <v>10.4276738856574</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>4.351313301980554</v>
+        <v>4.143912768356631</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>1.700211935191287</v>
+        <v>1.657628713856242</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>9.919505911913044</v>
+        <v>10.09177997204935</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>2.916543341703782</v>
+        <v>2.962793617745755</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>1.471323594955071</v>
+        <v>1.571023679146595</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>9.567509620339742</v>
+        <v>9.547153290126584</v>
       </c>
     </row>
     <row r="49">
@@ -2258,7 +2258,7 @@
         <v>-0.01325038291686607</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2714630562447088</v>
+        <v>0.2714630562447086</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.0612333083623897</v>
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.05966490597592503</v>
+        <v>-0.06592519223569866</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.07768743777714557</v>
+        <v>-0.08166504661151822</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.3261958523374284</v>
+        <v>0.3260757334358334</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.005756700650504065</v>
+        <v>-0.005596973994057249</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.08822900827705732</v>
+        <v>-0.08819084198618753</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1894565402330945</v>
+        <v>0.1980926423999467</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.001481627865902043</v>
+        <v>0.002150598968500491</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.06390535892933581</v>
+        <v>-0.05810027794121975</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.2711352231488655</v>
+        <v>0.273821627459454</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.1532722565917971</v>
+        <v>0.1502507497872922</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.1307047330613376</v>
+        <v>0.1250477349684296</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.6033974745494313</v>
+        <v>0.599263845997805</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.1556726880528092</v>
+        <v>0.1452552646352333</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.06054158533476201</v>
+        <v>0.05838649623262763</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.3579633933585334</v>
+        <v>0.3618187678244414</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.1266236114592982</v>
+        <v>0.1287286152084293</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.06388216740911948</v>
+        <v>0.0684431517203975</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.4147559567751444</v>
+        <v>0.4150482257510609</v>
       </c>
     </row>
     <row r="52">
